--- a/Lab5/Borys/Zeszyt1.xlsx
+++ b/Lab5/Borys/Zeszyt1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Git\PTM2\Lab5\Borys\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23BE9D8A-76A2-403D-BC2C-726510B488A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E92DD9-8477-4329-85A6-DB5566875000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6FDA9D6D-4C87-4610-A6F4-36C17B420670}"/>
+    <workbookView xWindow="780" yWindow="2640" windowWidth="15720" windowHeight="15435" xr2:uid="{6FDA9D6D-4C87-4610-A6F4-36C17B420670}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -115,7 +115,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -161,16 +161,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -488,12 +489,12 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I2"/>
+      <selection sqref="A1:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="9" max="9" width="19.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -591,7 +592,14 @@
         <f>5*C4</f>
         <v>3.5</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <f>(H4/20)*100%</f>
         <v>0</v>
       </c>
     </row>
@@ -619,7 +627,14 @@
         <f t="shared" ref="F5:F18" si="4">5*C5</f>
         <v>2.8250000000000002</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" ref="I5:I18" si="5">(H5/20)*100%</f>
         <v>0</v>
       </c>
     </row>
@@ -647,7 +662,14 @@
         <f t="shared" si="4"/>
         <v>2.75</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -675,8 +697,15 @@
         <f t="shared" si="4"/>
         <v>2.6750000000000003</v>
       </c>
-      <c r="G7">
-        <v>5</v>
+      <c r="G7" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.96</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="5"/>
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -703,8 +732,15 @@
         <f t="shared" si="4"/>
         <v>2.6</v>
       </c>
-      <c r="G8">
-        <v>10</v>
+      <c r="G8" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="I8" s="7">
+        <f t="shared" si="5"/>
+        <v>0.08</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -731,8 +767,15 @@
         <f t="shared" si="4"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="G9">
-        <v>30</v>
+      <c r="G9" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="2">
+        <v>6.09</v>
+      </c>
+      <c r="I9" s="7">
+        <f t="shared" si="5"/>
+        <v>0.30449999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -759,8 +802,15 @@
         <f t="shared" si="4"/>
         <v>2.1500000000000004</v>
       </c>
-      <c r="G10">
-        <v>40</v>
+      <c r="G10" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="H10" s="2">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="I10" s="7">
+        <f t="shared" si="5"/>
+        <v>0.42699999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -787,8 +837,15 @@
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="G11">
-        <v>50</v>
+      <c r="G11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="H11" s="2">
+        <v>10.32</v>
+      </c>
+      <c r="I11" s="7">
+        <f t="shared" si="5"/>
+        <v>0.51600000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -815,8 +872,15 @@
         <f t="shared" si="4"/>
         <v>1.85</v>
       </c>
-      <c r="G12">
-        <v>60</v>
+      <c r="G12" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="H12" s="2">
+        <v>12.67</v>
+      </c>
+      <c r="I12" s="7">
+        <f t="shared" si="5"/>
+        <v>0.63349999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -843,8 +907,15 @@
         <f t="shared" si="4"/>
         <v>1.7000000000000002</v>
       </c>
-      <c r="G13">
-        <v>70</v>
+      <c r="G13" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="H13" s="2">
+        <v>14.03</v>
+      </c>
+      <c r="I13" s="7">
+        <f t="shared" si="5"/>
+        <v>0.70150000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -871,8 +942,15 @@
         <f t="shared" si="4"/>
         <v>1.4000000000000001</v>
       </c>
-      <c r="G14">
-        <v>90</v>
+      <c r="G14" s="7">
+        <v>0.9</v>
+      </c>
+      <c r="H14" s="2">
+        <v>16.09</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="5"/>
+        <v>0.80449999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -899,8 +977,15 @@
         <f t="shared" si="4"/>
         <v>1.3250000000000002</v>
       </c>
-      <c r="G15">
-        <v>95</v>
+      <c r="G15" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="H15" s="2">
+        <v>19.14</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="5"/>
+        <v>0.95700000000000007</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -927,11 +1012,18 @@
         <f t="shared" si="4"/>
         <v>1.25</v>
       </c>
-      <c r="G16">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G16" s="7">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>0.55000000000000004</v>
       </c>
@@ -955,11 +1047,18 @@
         <f t="shared" si="4"/>
         <v>1.175</v>
       </c>
-      <c r="G17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G17" s="7">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -983,8 +1082,15 @@
         <f t="shared" si="4"/>
         <v>0.50000000000000022</v>
       </c>
-      <c r="G18">
-        <v>100</v>
+      <c r="G18" s="7">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -996,6 +1102,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C0E4D3D7BBEC648BE489ED8187733C7" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e677186e528ba6e9a4a77d138312cbb3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e475cd52-1a09-4048-9c89-80edf2243579" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c767f892eeaae05d513099630468cb4" ns3:_="">
     <xsd:import namespace="e475cd52-1a09-4048-9c89-80edf2243579"/>
@@ -1127,22 +1248,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9F960F-2C06-4213-A05F-E9FE878ADA23}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="e475cd52-1a09-4048-9c89-80edf2243579"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCFF1715-366D-4167-A3FB-AB23B7A5C588}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C41C1AB6-548C-41DE-905A-D95804373BFC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1158,28 +1288,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCFF1715-366D-4167-A3FB-AB23B7A5C588}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA9F960F-2C06-4213-A05F-E9FE878ADA23}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="e475cd52-1a09-4048-9c89-80edf2243579"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>